--- a/output/google_maps_data_Kantor_Pemerintahan_Sleman.xlsx
+++ b/output/google_maps_data_Kantor_Pemerintahan_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 868405</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>-7.716673</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.716673</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.355607</v>
       </c>
-      <c r="I2" t="b">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Bupati+Sleman/@-7.7131466,110.348409,16z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Sleman!3m6!1s0x2e7a58ca9958af51:0x7b59aa631f5ac9a1!8m2!3d-7.716673!4d110.3556067!15sChpLYW50b3IgUGVtZXJpbnRhaGFuIFNsZW1hblocIhprYW50b3IgcGVtZXJpbnRhaGFuIHNsZW1hbpIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsYVhKdU5YSm5SUkFC4AEA-gEFCLcBEEM!16s%2Fg%2F1pzr28qh1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Bupati+Sleman/@-7.7131466,110.348409,16z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Sleman!3m6!1s0x2e7a58ca9958af51:0x7b59aa631f5ac9a1!8m2!3d-7.716673!4d110.3556067!15sChpLYW50b3IgUGVtZXJpbnRhaGFuIFNsZW1hblocIhprYW50b3IgcGVtZXJpbnRhaGFuIHNsZW1hbpIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsYVhKdU5YSm5SUkFC4AEA-gEFCLcBEEM!16s%2Fg%2F1pzr28qh1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -552,21 +546,20 @@
           <t>(0274) 868512</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="E3" t="n">
         <v>4.2</v>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kabupaten+Sleman/@-7.7131466,110.348409,16z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Sleman!3m6!1s0x2e7a5f353ba001e9:0x513ea9b07f7cd94c!8m2!3d-7.7171797!4d110.3545966!15sChpLYW50b3IgUGVtZXJpbnRhaGFuIFNsZW1hblocIhprYW50b3IgcGVtZXJpbnRhaGFuIHNsZW1hbpIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5IWjBsVE9XdEJSUkFC4AEA-gEECC4QNw!16s%2Fg%2F1pzrrbt2q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kabupaten+Sleman/@-7.7131466,110.348409,16z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Sleman!3m6!1s0x2e7a5f353ba001e9:0x513ea9b07f7cd94c!8m2!3d-7.7171797!4d110.3545966!15sChpLYW50b3IgUGVtZXJpbnRhaGFuIFNsZW1hblocIhprYW50b3IgcGVtZXJpbnRhaGFuIHNsZW1hbpIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5IWjBsVE9XdEJSUkFC4AEA-gEECC4QNw!16s%2Fg%2F1pzrrbt2q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
